--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp7-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp7-Acvr2b.xlsx
@@ -540,40 +540,40 @@
         <v>5.005563</v>
       </c>
       <c r="I2">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="J2">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.539665666666667</v>
+        <v>1.315861666666667</v>
       </c>
       <c r="N2">
-        <v>4.618997</v>
+        <v>3.947585</v>
       </c>
       <c r="O2">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="P2">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="Q2">
-        <v>2.568964497812334</v>
+        <v>2.195542823928334</v>
       </c>
       <c r="R2">
-        <v>23.120680480311</v>
+        <v>19.759885415355</v>
       </c>
       <c r="S2">
-        <v>0.3456718693022986</v>
+        <v>0.2540073724749383</v>
       </c>
       <c r="T2">
-        <v>0.3456718693022986</v>
+        <v>0.2540073724749383</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>5.005563</v>
       </c>
       <c r="I3">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="J3">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>4.358617</v>
       </c>
       <c r="O3">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="P3">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="Q3">
         <v>2.424147998485667</v>
@@ -632,10 +632,10 @@
         <v>21.817331986371</v>
       </c>
       <c r="S3">
-        <v>0.3261858117601671</v>
+        <v>0.2804552281444473</v>
       </c>
       <c r="T3">
-        <v>0.3261858117601671</v>
+        <v>0.2804552281444473</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>5.005563</v>
       </c>
       <c r="I4">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="J4">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.317729666666666</v>
+        <v>2.009179666666667</v>
       </c>
       <c r="N4">
-        <v>3.953189</v>
+        <v>6.027539</v>
       </c>
       <c r="O4">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="P4">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="Q4">
-        <v>2.198659621156333</v>
+        <v>3.352358466606334</v>
       </c>
       <c r="R4">
-        <v>19.787936590407</v>
+        <v>30.171226199457</v>
       </c>
       <c r="S4">
-        <v>0.2958447973305209</v>
+        <v>0.3878420208507776</v>
       </c>
       <c r="T4">
-        <v>0.2958447973305209</v>
+        <v>0.3878420208507776</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.05568766666666667</v>
+        <v>0.140557</v>
       </c>
       <c r="H5">
-        <v>0.167063</v>
+        <v>0.421671</v>
       </c>
       <c r="I5">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="J5">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.539665666666667</v>
+        <v>1.315861666666667</v>
       </c>
       <c r="N5">
-        <v>4.618997</v>
+        <v>3.947585</v>
       </c>
       <c r="O5">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="P5">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="Q5">
-        <v>0.08574038842344446</v>
+        <v>0.1849535682816667</v>
       </c>
       <c r="R5">
-        <v>0.7716634958110001</v>
+        <v>1.664582114535</v>
       </c>
       <c r="S5">
-        <v>0.01153695987868895</v>
+        <v>0.0213977014691214</v>
       </c>
       <c r="T5">
-        <v>0.01153695987868895</v>
+        <v>0.0213977014691214</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.05568766666666667</v>
+        <v>0.140557</v>
       </c>
       <c r="H6">
-        <v>0.167063</v>
+        <v>0.421671</v>
       </c>
       <c r="I6">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="J6">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>4.358617</v>
       </c>
       <c r="O6">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="P6">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="Q6">
-        <v>0.0809070702078889</v>
+        <v>0.2042113765563333</v>
       </c>
       <c r="R6">
-        <v>0.7281636318710001</v>
+        <v>1.837902389007</v>
       </c>
       <c r="S6">
-        <v>0.01088660361883145</v>
+        <v>0.02362568136828909</v>
       </c>
       <c r="T6">
-        <v>0.01088660361883145</v>
+        <v>0.02362568136828909</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.05568766666666667</v>
+        <v>0.140557</v>
       </c>
       <c r="H7">
-        <v>0.167063</v>
+        <v>0.421671</v>
       </c>
       <c r="I7">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="J7">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.317729666666666</v>
+        <v>2.009179666666667</v>
       </c>
       <c r="N7">
-        <v>3.953189</v>
+        <v>6.027539</v>
       </c>
       <c r="O7">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="P7">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="Q7">
-        <v>0.07338129043411111</v>
+        <v>0.2824042664076667</v>
       </c>
       <c r="R7">
-        <v>0.660431613907</v>
+        <v>2.541638397669</v>
       </c>
       <c r="S7">
-        <v>0.009873958109493141</v>
+        <v>0.03267199569242626</v>
       </c>
       <c r="T7">
-        <v>0.009873958109493141</v>
+        <v>0.03267199569242626</v>
       </c>
     </row>
   </sheetData>
